--- a/1gram/Result v2.xlsx
+++ b/1gram/Result v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\experiment\1gram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\DoYourJob\1gram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C91" sqref="A87:D104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,28 +473,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.89429999999999998</v>
+        <v>0.8498</v>
       </c>
       <c r="C4" s="3">
-        <v>0.91669999999999996</v>
+        <v>0.83540000000000003</v>
       </c>
       <c r="D4" s="3">
-        <v>0.90529999999999999</v>
+        <v>0.84260000000000002</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="3">
-        <f>(B4+B25+B46+B67+B88)/5</f>
-        <v>0.86743999999999999</v>
+        <f t="shared" ref="K4:K20" si="0">(B4+B25+B46+B67+B88)/5</f>
+        <v>0.88260000000000005</v>
       </c>
       <c r="L4" s="3">
-        <f>(C4+C25+C46+C67+C88)/5</f>
-        <v>0.87660000000000005</v>
+        <f t="shared" ref="L4:L20" si="1">(C4+C25+C46+C67+C88)/5</f>
+        <v>0.88622000000000012</v>
       </c>
       <c r="M4" s="3">
-        <f>(D4+D25+D46+D67+D88)/5</f>
-        <v>0.87195999999999996</v>
+        <f t="shared" ref="M4:M20" si="2">(D4+D25+D46+D67+D88)/5</f>
+        <v>0.88436000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -502,28 +502,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>0.72729999999999995</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>0.72729999999999995</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="D5" s="3">
-        <v>0.72729999999999995</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="3">
-        <f>(B5+B26+B47+B68+B89)/5</f>
-        <v>0.92545999999999995</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
-        <f>(C5+C26+C47+C68+C89)/5</f>
-        <v>0.8891</v>
+        <f t="shared" si="1"/>
+        <v>0.96753999999999996</v>
       </c>
       <c r="M5" s="3">
-        <f>(D5+D26+D47+D68+D89)/5</f>
-        <v>0.90546000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.98307999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -531,28 +531,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>0.84619999999999995</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="C6" s="3">
-        <v>0.61109999999999998</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="D6" s="3">
-        <v>0.7097</v>
+        <v>0.8125</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="3">
-        <f>(B6+B27+B48+B69+B90)/5</f>
-        <v>0.81817999999999991</v>
+        <f t="shared" si="0"/>
+        <v>0.83008000000000004</v>
       </c>
       <c r="L6" s="3">
-        <f>(C6+C27+C48+C69+C90)/5</f>
-        <v>0.58450000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.6547599999999999</v>
       </c>
       <c r="M6" s="3">
-        <f>(D6+D27+D48+D69+D90)/5</f>
-        <v>0.67278000000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.70167999999999986</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -563,25 +563,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>0.9677</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0.98360000000000003</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="3">
-        <f>(B7+B28+B49+B70+B91)/5</f>
-        <v>0.98639999999999994</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="L7" s="3">
-        <f>(C7+C28+C49+C70+C91)/5</f>
-        <v>0.98710000000000009</v>
+        <f t="shared" si="1"/>
+        <v>0.99353999999999998</v>
       </c>
       <c r="M7" s="3">
-        <f>(D7+D28+D49+D70+D91)/5</f>
-        <v>0.98642000000000007</v>
+        <f t="shared" si="2"/>
+        <v>0.99672000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -589,28 +589,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.9</v>
+        <v>0.90910000000000002</v>
       </c>
       <c r="C8" s="3">
-        <v>0.878</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D8" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="3">
-        <f>(B8+B29+B50+B71+B92)/5</f>
-        <v>0.94068000000000007</v>
+        <f t="shared" si="0"/>
+        <v>0.94499999999999995</v>
       </c>
       <c r="L8" s="3">
-        <f>(C8+C29+C50+C71+C92)/5</f>
-        <v>0.86424000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.87162000000000006</v>
       </c>
       <c r="M8" s="3">
-        <f>(D8+D29+D50+D71+D92)/5</f>
-        <v>0.89964000000000011</v>
+        <f t="shared" si="2"/>
+        <v>0.90638000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -621,25 +621,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="3">
-        <f>(B9+B30+B51+B72+B93)/5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L9" s="3">
-        <f>(C9+C30+C51+C72+C93)/5</f>
-        <v>0.75</v>
+        <f t="shared" si="1"/>
+        <v>0.66666000000000003</v>
       </c>
       <c r="M9" s="3">
-        <f>(D9+D30+D51+D72+D93)/5</f>
-        <v>0.81333999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.76668000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -647,28 +647,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0.89470000000000005</v>
+        <v>0.8387</v>
       </c>
       <c r="C10" s="3">
-        <v>0.78459999999999996</v>
+        <v>0.72219999999999995</v>
       </c>
       <c r="D10" s="3">
-        <v>0.83609999999999995</v>
+        <v>0.77610000000000001</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="3">
-        <f>(B10+B31+B52+B73+B94)/5</f>
-        <v>0.88502000000000014</v>
+        <f t="shared" si="0"/>
+        <v>0.88732000000000011</v>
       </c>
       <c r="L10" s="3">
-        <f>(C10+C31+C52+C73+C94)/5</f>
-        <v>0.7605599999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.79189999999999994</v>
       </c>
       <c r="M10" s="3">
-        <f>(D10+D31+D52+D73+D94)/5</f>
-        <v>0.81691999999999998</v>
+        <f t="shared" si="2"/>
+        <v>0.83679999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -676,28 +676,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>0.94740000000000002</v>
+        <v>0.9143</v>
       </c>
       <c r="C11" s="3">
-        <v>0.67920000000000003</v>
+        <v>0.82050000000000001</v>
       </c>
       <c r="D11" s="3">
-        <v>0.79120000000000001</v>
+        <v>0.8649</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="3">
-        <f>(B11+B32+B53+B74+B95)/5</f>
-        <v>0.86294000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.87212000000000001</v>
       </c>
       <c r="L11" s="3">
-        <f>(C11+C32+C53+C74+C95)/5</f>
-        <v>0.71374000000000004</v>
+        <f t="shared" si="1"/>
+        <v>0.75566</v>
       </c>
       <c r="M11" s="3">
-        <f>(D11+D32+D53+D74+D95)/5</f>
-        <v>0.77954000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.80936000000000008</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -705,28 +705,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>0.83779999999999999</v>
+        <v>0.91110000000000002</v>
       </c>
       <c r="C12" s="3">
-        <v>0.91180000000000005</v>
+        <v>0.85419999999999996</v>
       </c>
       <c r="D12" s="3">
-        <v>0.87319999999999998</v>
+        <v>0.88170000000000004</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="3">
-        <f>(B12+B33+B54+B75+B96)/5</f>
-        <v>0.85877999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.86879999999999991</v>
       </c>
       <c r="L12" s="3">
-        <f>(C12+C33+C54+C75+C96)/5</f>
-        <v>0.84777999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.82333999999999996</v>
       </c>
       <c r="M12" s="3">
-        <f>(D12+D33+D54+D75+D96)/5</f>
-        <v>0.85242000000000007</v>
+        <f t="shared" si="2"/>
+        <v>0.84500000000000008</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -734,28 +734,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>0.94750000000000001</v>
+        <v>0.94179999999999997</v>
       </c>
       <c r="C13" s="3">
-        <v>0.94010000000000005</v>
+        <v>0.91520000000000001</v>
       </c>
       <c r="D13" s="3">
-        <v>0.94379999999999997</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="3">
-        <f>(B13+B34+B55+B76+B97)/5</f>
-        <v>0.94701999999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.94694</v>
       </c>
       <c r="L13" s="3">
-        <f>(C13+C34+C55+C76+C97)/5</f>
-        <v>0.93521999999999994</v>
+        <f t="shared" si="1"/>
+        <v>0.92948000000000008</v>
       </c>
       <c r="M13" s="3">
-        <f>(D13+D34+D55+D76+D97)/5</f>
-        <v>0.94106000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.93811999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -763,28 +763,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>0.95240000000000002</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="D14" s="3">
-        <v>0.97560000000000002</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="3">
-        <f>(B14+B35+B56+B77+B98)/5</f>
-        <v>0.94374000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.96488000000000018</v>
       </c>
       <c r="L14" s="3">
-        <f>(C14+C35+C56+C77+C98)/5</f>
-        <v>0.95665999999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.96064000000000005</v>
       </c>
       <c r="M14" s="3">
-        <f>(D14+D35+D56+D77+D98)/5</f>
-        <v>0.94965999999999995</v>
+        <f t="shared" si="2"/>
+        <v>0.96113999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -804,16 +804,16 @@
         <v>14</v>
       </c>
       <c r="K15" s="3">
-        <f>(B15+B36+B57+B78+B99)/5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L15" s="3">
-        <f>(C15+C36+C57+C78+C99)/5</f>
-        <v>0.96596000000000015</v>
+        <f t="shared" si="1"/>
+        <v>0.99199999999999999</v>
       </c>
       <c r="M15" s="3">
-        <f>(D15+D36+D57+D78+D99)/5</f>
-        <v>0.98209999999999997</v>
+        <f t="shared" si="2"/>
+        <v>0.99591999999999992</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -824,25 +824,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>0.8</v>
+        <v>0.28570000000000001</v>
       </c>
       <c r="D16" s="3">
-        <v>0.88890000000000002</v>
+        <v>0.44440000000000002</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="3">
-        <f>(B16+B37+B58+B79+B100)/5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L16" s="3">
-        <f>(C16+C37+C58+C79+C100)/5</f>
-        <v>0.56858000000000009</v>
+        <f t="shared" si="1"/>
+        <v>0.65834000000000004</v>
       </c>
       <c r="M16" s="3">
-        <f>(D16+D37+D58+D79+D100)/5</f>
-        <v>0.6754</v>
+        <f t="shared" si="2"/>
+        <v>0.76938000000000017</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -850,28 +850,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="3">
-        <f>(B17+B38+B59+B80+B101)/5</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.90834000000000015</v>
       </c>
       <c r="L17" s="3">
-        <f>(C17+C38+C59+C80+C101)/5</f>
-        <v>0.85333999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.66</v>
       </c>
       <c r="M17" s="3">
-        <f>(D17+D38+D59+D80+D101)/5</f>
-        <v>0.90999999999999992</v>
+        <f t="shared" si="2"/>
+        <v>0.75318000000000007</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -879,28 +879,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0.94840000000000002</v>
+        <v>0.95469999999999999</v>
       </c>
       <c r="C18" s="3">
-        <v>0.96760000000000002</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="D18" s="3">
-        <v>0.95789999999999997</v>
+        <v>0.9627</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="3">
-        <f>(B18+B39+B60+B81+B102)/5</f>
-        <v>0.96272000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.97028000000000003</v>
       </c>
       <c r="L18" s="3">
-        <f>(C18+C39+C60+C81+C102)/5</f>
-        <v>0.97423999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.96728000000000003</v>
       </c>
       <c r="M18" s="3">
-        <f>(D18+D39+D60+D81+D102)/5</f>
-        <v>0.96839999999999993</v>
+        <f t="shared" si="2"/>
+        <v>0.96872000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -908,28 +908,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>0.98040000000000005</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>0.98040000000000005</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>0.98040000000000005</v>
+        <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="3">
-        <f>(B19+B40+B61+B82+B103)/5</f>
-        <v>0.98608000000000007</v>
+        <f t="shared" si="0"/>
+        <v>0.97420000000000007</v>
       </c>
       <c r="L19" s="3">
-        <f>(C19+C40+C61+C82+C103)/5</f>
-        <v>0.96942000000000006</v>
+        <f t="shared" si="1"/>
+        <v>0.96889999999999998</v>
       </c>
       <c r="M19" s="3">
-        <f>(D19+D40+D61+D82+D103)/5</f>
-        <v>0.97737999999999992</v>
+        <f t="shared" si="2"/>
+        <v>0.9714600000000001</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -937,28 +937,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>0.92769999999999997</v>
+        <v>0.92149999999999999</v>
       </c>
       <c r="C20" s="3">
-        <v>0.91669999999999996</v>
+        <v>0.89119999999999999</v>
       </c>
       <c r="D20" s="3">
-        <v>0.92220000000000002</v>
+        <v>0.90610000000000002</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="3">
-        <f>(B20+B41+B62+B83+B104)/5</f>
-        <v>0.92441999999999991</v>
+        <f t="shared" si="0"/>
+        <v>0.93105999999999989</v>
       </c>
       <c r="L20" s="3">
-        <f>(C20+C41+C62+C83+C104)/5</f>
-        <v>0.90169999999999995</v>
+        <f t="shared" si="1"/>
+        <v>0.90438000000000007</v>
       </c>
       <c r="M20" s="3">
-        <f>(D20+D41+D62+D83+D104)/5</f>
-        <v>0.91292000000000006</v>
+        <f t="shared" si="2"/>
+        <v>0.91754000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -982,13 +982,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.8659</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>0.873</v>
+        <v>0.89259999999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>0.86939999999999995</v>
+        <v>0.89439999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -996,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1010,13 +1010,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.8</v>
       </c>
       <c r="C27" s="1">
-        <v>0.78569999999999995</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D27" s="1">
-        <v>0.75860000000000005</v>
+        <v>0.8276</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1027,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>0.9355</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>0.9667</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1038,13 +1038,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.9375</v>
       </c>
       <c r="C29" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="D29" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.88239999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>0.90480000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="C31" s="1">
-        <v>0.70369999999999999</v>
+        <v>0.80359999999999998</v>
       </c>
       <c r="D31" s="1">
-        <v>0.79169999999999996</v>
+        <v>0.84909999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>0.85289999999999999</v>
+        <v>0.89129999999999998</v>
       </c>
       <c r="C32" s="1">
-        <v>0.6744</v>
+        <v>0.74550000000000005</v>
       </c>
       <c r="D32" s="1">
-        <v>0.75319999999999998</v>
+        <v>0.81189999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,13 +1094,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>0.83499999999999996</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="C33" s="1">
-        <v>0.80369999999999997</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="D33" s="1">
-        <v>0.81899999999999995</v>
+        <v>0.8538</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,13 +1108,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>0.95420000000000005</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="C34" s="1">
-        <v>0.94399999999999995</v>
+        <v>0.93730000000000002</v>
       </c>
       <c r="D34" s="1">
-        <v>0.94910000000000005</v>
+        <v>0.94099999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>0.9355</v>
       </c>
       <c r="C35" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.9667</v>
       </c>
       <c r="D35" s="1">
-        <v>0.96550000000000002</v>
+        <v>0.95079999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>0.88239999999999996</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>0.5</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="D37" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.83330000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1">
-        <v>0.96060000000000001</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="C39" s="1">
-        <v>0.97209999999999996</v>
+        <v>0.95750000000000002</v>
       </c>
       <c r="D39" s="1">
-        <v>0.96630000000000005</v>
+        <v>0.97060000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B40" s="1">
-        <v>0.95</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="C40" s="1">
-        <v>0.95</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="D40" s="1">
-        <v>0.95</v>
+        <v>0.94340000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>0.92330000000000001</v>
+        <v>0.9335</v>
       </c>
       <c r="C41" s="1">
-        <v>0.89810000000000001</v>
+        <v>0.9123</v>
       </c>
       <c r="D41" s="1">
-        <v>0.91049999999999998</v>
+        <v>0.92279999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,13 +1236,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.86150000000000004</v>
+        <v>0.93440000000000001</v>
       </c>
       <c r="C46" s="1">
-        <v>0.875</v>
+        <v>0.95279999999999998</v>
       </c>
       <c r="D46" s="1">
-        <v>0.86819999999999997</v>
+        <v>0.94350000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>0.81820000000000004</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,13 +1264,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C48" s="1">
-        <v>0.58819999999999995</v>
+        <v>0.26669999999999999</v>
       </c>
       <c r="D48" s="1">
-        <v>0.74070000000000003</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,13 +1278,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>0.9677</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <v>0.98360000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>0.9143</v>
+        <v>0.97140000000000004</v>
       </c>
       <c r="C50" s="1">
-        <v>0.82050000000000001</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="D50" s="1">
-        <v>0.8649</v>
+        <v>0.91890000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,13 +1320,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>0.85709999999999997</v>
+        <v>0.87039999999999995</v>
       </c>
       <c r="C52" s="1">
-        <v>0.75</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="D52" s="1">
-        <v>0.8</v>
+        <v>0.83189999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,13 +1334,13 @@
         <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>0.87180000000000002</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="C53" s="1">
-        <v>0.72340000000000004</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="D53" s="1">
-        <v>0.79069999999999996</v>
+        <v>0.76919999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1348,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>0.88639999999999997</v>
+        <v>0.86209999999999998</v>
       </c>
       <c r="C54" s="1">
-        <v>0.80410000000000004</v>
+        <v>0.80649999999999999</v>
       </c>
       <c r="D54" s="1">
-        <v>0.84319999999999995</v>
+        <v>0.83330000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,13 +1362,13 @@
         <v>12</v>
       </c>
       <c r="B55" s="1">
-        <v>0.93320000000000003</v>
+        <v>0.94269999999999998</v>
       </c>
       <c r="C55" s="1">
-        <v>0.92369999999999997</v>
+        <v>0.91879999999999995</v>
       </c>
       <c r="D55" s="1">
-        <v>0.9284</v>
+        <v>0.93059999999999998</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1376,13 @@
         <v>13</v>
       </c>
       <c r="B56" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>0.94740000000000002</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
-        <v>0.97299999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>0.57140000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1418,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>0.57140000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="1">
-        <v>0.97989999999999999</v>
+        <v>0.98350000000000004</v>
       </c>
       <c r="C60" s="1">
-        <v>0.97599999999999998</v>
+        <v>0.96760000000000002</v>
       </c>
       <c r="D60" s="1">
-        <v>0.97799999999999998</v>
+        <v>0.97550000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,13 +1446,13 @@
         <v>18</v>
       </c>
       <c r="B61" s="1">
-        <v>1</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="C61" s="1">
-        <v>1</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>0.95889999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,13 +1460,13 @@
         <v>19</v>
       </c>
       <c r="B62" s="1">
-        <v>0.92349999999999999</v>
+        <v>0.94059999999999999</v>
       </c>
       <c r="C62" s="1">
-        <v>0.89329999999999998</v>
+        <v>0.91090000000000004</v>
       </c>
       <c r="D62" s="1">
-        <v>0.90820000000000001</v>
+        <v>0.92549999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,13 +1490,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.84699999999999998</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="C67" s="1">
-        <v>0.85660000000000003</v>
+        <v>0.85109999999999997</v>
       </c>
       <c r="D67" s="1">
-        <v>0.8518</v>
+        <v>0.84209999999999996</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>0.92859999999999998</v>
       </c>
       <c r="D68" s="1">
-        <v>1</v>
+        <v>0.96299999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="1">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D69" s="1">
-        <v>0.63639999999999997</v>
+        <v>0.7097</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="1">
-        <v>0.97729999999999995</v>
+        <v>1</v>
       </c>
       <c r="C71" s="1">
-        <v>0.89580000000000004</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="D71" s="1">
-        <v>0.93479999999999996</v>
+        <v>0.94120000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>0.25</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="D72" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,13 +1574,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="1">
-        <v>0.89090000000000003</v>
+        <v>0.873</v>
       </c>
       <c r="C73" s="1">
-        <v>0.85960000000000003</v>
+        <v>0.79710000000000003</v>
       </c>
       <c r="D73" s="1">
-        <v>0.875</v>
+        <v>0.83330000000000004</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="1">
-        <v>0.86839999999999995</v>
+        <v>0.82979999999999998</v>
       </c>
       <c r="C74" s="1">
-        <v>0.82499999999999996</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="D74" s="1">
-        <v>0.84619999999999995</v>
+        <v>0.79590000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="B75" s="1">
-        <v>0.85060000000000002</v>
+        <v>0.86570000000000003</v>
       </c>
       <c r="C75" s="1">
-        <v>0.82220000000000004</v>
+        <v>0.79449999999999998</v>
       </c>
       <c r="D75" s="1">
-        <v>0.83620000000000005</v>
+        <v>0.8286</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,13 +1616,13 @@
         <v>12</v>
       </c>
       <c r="B76" s="1">
-        <v>0.95379999999999998</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="C76" s="1">
-        <v>0.94899999999999995</v>
+        <v>0.93489999999999995</v>
       </c>
       <c r="D76" s="1">
-        <v>0.95140000000000002</v>
+        <v>0.93979999999999997</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,13 +1630,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1">
-        <v>0.96150000000000002</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>0.98040000000000005</v>
+        <v>0.94120000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="D78" s="1">
-        <v>1</v>
+        <v>0.97960000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>0.1429</v>
+        <v>0.625</v>
       </c>
       <c r="D79" s="1">
-        <v>0.25</v>
+        <v>0.76919999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D80" s="1">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,13 +1686,13 @@
         <v>17</v>
       </c>
       <c r="B81" s="1">
-        <v>0.96750000000000003</v>
+        <v>0.96050000000000002</v>
       </c>
       <c r="C81" s="1">
-        <v>0.96750000000000003</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="D81" s="1">
-        <v>0.96750000000000003</v>
+        <v>0.96619999999999995</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,13 +1700,13 @@
         <v>18</v>
       </c>
       <c r="B82" s="1">
-        <v>1</v>
+        <v>0.96360000000000001</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="D82" s="1">
-        <v>1</v>
+        <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,13 +1714,13 @@
         <v>19</v>
       </c>
       <c r="B83" s="1">
-        <v>0.92510000000000003</v>
+        <v>0.91949999999999998</v>
       </c>
       <c r="C83" s="1">
-        <v>0.90769999999999995</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D83" s="1">
-        <v>0.9163</v>
+        <v>0.90710000000000002</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,13 +1744,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="1">
-        <v>0.86850000000000005</v>
+        <v>0.8992</v>
       </c>
       <c r="C88" s="1">
-        <v>0.86170000000000002</v>
+        <v>0.8992</v>
       </c>
       <c r="D88" s="1">
-        <v>0.86509999999999998</v>
+        <v>0.8992</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="1">
-        <v>0.63639999999999997</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="C90" s="1">
-        <v>0.4375</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="D90" s="1">
-        <v>0.51849999999999996</v>
+        <v>0.75860000000000005</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,13 +1786,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="1">
-        <v>0.96430000000000005</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="1">
-        <v>0.98180000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,13 +1800,13 @@
         <v>7</v>
       </c>
       <c r="B92" s="1">
-        <v>0.97060000000000002</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="C92" s="1">
-        <v>0.78569999999999995</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="D92" s="1">
-        <v>0.86839999999999995</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D93" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,13 +1828,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="1">
-        <v>0.87760000000000005</v>
+        <v>0.95450000000000002</v>
       </c>
       <c r="C94" s="1">
-        <v>0.70489999999999997</v>
+        <v>0.84</v>
       </c>
       <c r="D94" s="1">
-        <v>0.78180000000000005</v>
+        <v>0.89359999999999995</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="B95" s="1">
-        <v>0.7742</v>
+        <v>0.89190000000000003</v>
       </c>
       <c r="C95" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="D95" s="1">
-        <v>0.71640000000000004</v>
+        <v>0.80489999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,13 +1856,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="1">
-        <v>0.8841</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="C96" s="1">
-        <v>0.89710000000000001</v>
+        <v>0.79249999999999998</v>
       </c>
       <c r="D96" s="1">
-        <v>0.89049999999999996</v>
+        <v>0.8276</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,13 +1870,13 @@
         <v>12</v>
       </c>
       <c r="B97" s="1">
-        <v>0.94640000000000002</v>
+        <v>0.96079999999999999</v>
       </c>
       <c r="C97" s="1">
-        <v>0.91930000000000001</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="D97" s="1">
-        <v>0.93259999999999998</v>
+        <v>0.95089999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1884,13 +1884,13 @@
         <v>13</v>
       </c>
       <c r="B98" s="1">
-        <v>0.90480000000000005</v>
+        <v>1</v>
       </c>
       <c r="C98" s="1">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="D98" s="1">
-        <v>0.92679999999999996</v>
+        <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D100" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D101" s="1">
-        <v>0.75</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,13 +1940,13 @@
         <v>17</v>
       </c>
       <c r="B102" s="1">
-        <v>0.95720000000000005</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="C102" s="1">
-        <v>0.98799999999999999</v>
+        <v>0.96860000000000002</v>
       </c>
       <c r="D102" s="1">
-        <v>0.97230000000000005</v>
+        <v>0.96860000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="1">
-        <v>0.91669999999999996</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
-        <v>0.95650000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,13 +1968,13 @@
         <v>19</v>
       </c>
       <c r="B104" s="1">
-        <v>0.92249999999999999</v>
+        <v>0.94020000000000004</v>
       </c>
       <c r="C104" s="1">
-        <v>0.89270000000000005</v>
+        <v>0.91249999999999998</v>
       </c>
       <c r="D104" s="1">
-        <v>0.90739999999999998</v>
+        <v>0.92620000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/1gram/Result v2.xlsx
+++ b/1gram/Result v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\DoYourJob\1gram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\thien\Learning\NLP\Project\Code\experiment\1gram\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C91" sqref="A87:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,28 +473,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>0.8498</v>
+        <v>0.89429999999999998</v>
       </c>
       <c r="C4" s="3">
-        <v>0.83540000000000003</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="D4" s="3">
-        <v>0.84260000000000002</v>
+        <v>0.90529999999999999</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" ref="K4:K20" si="0">(B4+B25+B46+B67+B88)/5</f>
-        <v>0.88260000000000005</v>
+        <f>(B4+B25+B46+B67+B88)/5</f>
+        <v>0.86743999999999999</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L20" si="1">(C4+C25+C46+C67+C88)/5</f>
-        <v>0.88622000000000012</v>
+        <f>(C4+C25+C46+C67+C88)/5</f>
+        <v>0.87660000000000005</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:M20" si="2">(D4+D25+D46+D67+D88)/5</f>
-        <v>0.88436000000000003</v>
+        <f>(D4+D25+D46+D67+D88)/5</f>
+        <v>0.87195999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -502,28 +502,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="C5" s="3">
-        <v>0.90910000000000002</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="D5" s="3">
-        <v>0.95240000000000002</v>
+        <v>0.72729999999999995</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>(B5+B26+B47+B68+B89)/5</f>
+        <v>0.92545999999999995</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.96753999999999996</v>
+        <f>(C5+C26+C47+C68+C89)/5</f>
+        <v>0.8891</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.98307999999999995</v>
+        <f>(D5+D26+D47+D68+D89)/5</f>
+        <v>0.90546000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -531,28 +531,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>0.76470000000000005</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="C6" s="3">
-        <v>0.86670000000000003</v>
+        <v>0.61109999999999998</v>
       </c>
       <c r="D6" s="3">
-        <v>0.8125</v>
+        <v>0.7097</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.83008000000000004</v>
+        <f>(B6+B27+B48+B69+B90)/5</f>
+        <v>0.81817999999999991</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="1"/>
-        <v>0.6547599999999999</v>
+        <f>(C6+C27+C48+C69+C90)/5</f>
+        <v>0.58450000000000002</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.70167999999999986</v>
+        <f>(D6+D27+D48+D69+D90)/5</f>
+        <v>0.67278000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -563,25 +563,25 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>0.9677</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
-        <v>0.98360000000000003</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>(B7+B28+B49+B70+B91)/5</f>
+        <v>0.98639999999999994</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.99353999999999998</v>
+        <f>(C7+C28+C49+C70+C91)/5</f>
+        <v>0.98710000000000009</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99672000000000005</v>
+        <f>(D7+D28+D49+D70+D91)/5</f>
+        <v>0.98642000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -589,28 +589,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>0.90910000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="C8" s="3">
-        <v>0.85709999999999997</v>
+        <v>0.878</v>
       </c>
       <c r="D8" s="3">
-        <v>0.88239999999999996</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94499999999999995</v>
+        <f>(B8+B29+B50+B71+B92)/5</f>
+        <v>0.94068000000000007</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.87162000000000006</v>
+        <f>(C8+C29+C50+C71+C92)/5</f>
+        <v>0.86424000000000001</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.90638000000000007</v>
+        <f>(D8+D29+D50+D71+D92)/5</f>
+        <v>0.89964000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -621,25 +621,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="3">
-        <f t="shared" si="0"/>
+        <f>(B9+B30+B51+B72+B93)/5</f>
         <v>1</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.66666000000000003</v>
+        <f>(C9+C30+C51+C72+C93)/5</f>
+        <v>0.75</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.76668000000000003</v>
+        <f>(D9+D30+D51+D72+D93)/5</f>
+        <v>0.81333999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -647,28 +647,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0.8387</v>
+        <v>0.89470000000000005</v>
       </c>
       <c r="C10" s="3">
-        <v>0.72219999999999995</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="D10" s="3">
-        <v>0.77610000000000001</v>
+        <v>0.83609999999999995</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.88732000000000011</v>
+        <f>(B10+B31+B52+B73+B94)/5</f>
+        <v>0.88502000000000014</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.79189999999999994</v>
+        <f>(C10+C31+C52+C73+C94)/5</f>
+        <v>0.7605599999999999</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="2"/>
-        <v>0.83679999999999999</v>
+        <f>(D10+D31+D52+D73+D94)/5</f>
+        <v>0.81691999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -676,28 +676,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>0.9143</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="C11" s="3">
-        <v>0.82050000000000001</v>
+        <v>0.67920000000000003</v>
       </c>
       <c r="D11" s="3">
-        <v>0.8649</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.87212000000000001</v>
+        <f>(B11+B32+B53+B74+B95)/5</f>
+        <v>0.86294000000000004</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.75566</v>
+        <f>(C11+C32+C53+C74+C95)/5</f>
+        <v>0.71374000000000004</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="2"/>
-        <v>0.80936000000000008</v>
+        <f>(D11+D32+D53+D74+D95)/5</f>
+        <v>0.77954000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -705,28 +705,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>0.91110000000000002</v>
+        <v>0.83779999999999999</v>
       </c>
       <c r="C12" s="3">
-        <v>0.85419999999999996</v>
+        <v>0.91180000000000005</v>
       </c>
       <c r="D12" s="3">
-        <v>0.88170000000000004</v>
+        <v>0.87319999999999998</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.86879999999999991</v>
+        <f>(B12+B33+B54+B75+B96)/5</f>
+        <v>0.85877999999999999</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.82333999999999996</v>
+        <f>(C12+C33+C54+C75+C96)/5</f>
+        <v>0.84777999999999998</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="2"/>
-        <v>0.84500000000000008</v>
+        <f>(D12+D33+D54+D75+D96)/5</f>
+        <v>0.85242000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -734,28 +734,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>0.94179999999999997</v>
+        <v>0.94750000000000001</v>
       </c>
       <c r="C13" s="3">
-        <v>0.91520000000000001</v>
+        <v>0.94010000000000005</v>
       </c>
       <c r="D13" s="3">
-        <v>0.92830000000000001</v>
+        <v>0.94379999999999997</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.94694</v>
+        <f>(B13+B34+B55+B76+B97)/5</f>
+        <v>0.94701999999999997</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.92948000000000008</v>
+        <f>(C13+C34+C55+C76+C97)/5</f>
+        <v>0.93521999999999994</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="2"/>
-        <v>0.93811999999999995</v>
+        <f>(D13+D34+D55+D76+D97)/5</f>
+        <v>0.94106000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -763,28 +763,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="C14" s="3">
-        <v>0.96150000000000002</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0.98040000000000005</v>
+        <v>0.97560000000000002</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.96488000000000018</v>
+        <f>(B14+B35+B56+B77+B98)/5</f>
+        <v>0.94374000000000002</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="1"/>
-        <v>0.96064000000000005</v>
+        <f>(C14+C35+C56+C77+C98)/5</f>
+        <v>0.95665999999999995</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="2"/>
-        <v>0.96113999999999999</v>
+        <f>(D14+D35+D56+D77+D98)/5</f>
+        <v>0.94965999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -804,16 +804,16 @@
         <v>14</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="0"/>
+        <f>(B15+B36+B57+B78+B99)/5</f>
         <v>1</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="1"/>
-        <v>0.99199999999999999</v>
+        <f>(C15+C36+C57+C78+C99)/5</f>
+        <v>0.96596000000000015</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99591999999999992</v>
+        <f>(D15+D36+D57+D78+D99)/5</f>
+        <v>0.98209999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -824,25 +824,25 @@
         <v>1</v>
       </c>
       <c r="C16" s="3">
-        <v>0.28570000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="D16" s="3">
-        <v>0.44440000000000002</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K16" s="3">
-        <f t="shared" si="0"/>
+        <f>(B16+B37+B58+B79+B100)/5</f>
         <v>1</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.65834000000000004</v>
+        <f>(C16+C37+C58+C79+C100)/5</f>
+        <v>0.56858000000000009</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.76938000000000017</v>
+        <f>(D16+D37+D58+D79+D100)/5</f>
+        <v>0.6754</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -850,28 +850,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>0.77780000000000005</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="0"/>
-        <v>0.90834000000000015</v>
+        <f>(B17+B38+B59+B80+B101)/5</f>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.66</v>
+        <f>(C17+C38+C59+C80+C101)/5</f>
+        <v>0.85333999999999999</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="2"/>
-        <v>0.75318000000000007</v>
+        <f>(D17+D38+D59+D80+D101)/5</f>
+        <v>0.90999999999999992</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -879,28 +879,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0.95469999999999999</v>
+        <v>0.94840000000000002</v>
       </c>
       <c r="C18" s="3">
-        <v>0.97070000000000001</v>
+        <v>0.96760000000000002</v>
       </c>
       <c r="D18" s="3">
-        <v>0.9627</v>
+        <v>0.95789999999999997</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97028000000000003</v>
+        <f>(B18+B39+B60+B81+B102)/5</f>
+        <v>0.96272000000000002</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="1"/>
-        <v>0.96728000000000003</v>
+        <f>(C18+C39+C60+C81+C102)/5</f>
+        <v>0.97423999999999999</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.96872000000000003</v>
+        <f>(D18+D39+D60+D81+D102)/5</f>
+        <v>0.96839999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -908,28 +908,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>0.98040000000000005</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="0"/>
-        <v>0.97420000000000007</v>
+        <f>(B19+B40+B61+B82+B103)/5</f>
+        <v>0.98608000000000007</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="1"/>
-        <v>0.96889999999999998</v>
+        <f>(C19+C40+C61+C82+C103)/5</f>
+        <v>0.96942000000000006</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.9714600000000001</v>
+        <f>(D19+D40+D61+D82+D103)/5</f>
+        <v>0.97737999999999992</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -937,28 +937,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>0.92149999999999999</v>
+        <v>0.92769999999999997</v>
       </c>
       <c r="C20" s="3">
-        <v>0.89119999999999999</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="D20" s="3">
-        <v>0.90610000000000002</v>
+        <v>0.92220000000000002</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="0"/>
-        <v>0.93105999999999989</v>
+        <f>(B20+B41+B62+B83+B104)/5</f>
+        <v>0.92441999999999991</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="1"/>
-        <v>0.90438000000000007</v>
+        <f>(C20+C41+C62+C83+C104)/5</f>
+        <v>0.90169999999999995</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.91754000000000002</v>
+        <f>(D20+D41+D62+D83+D104)/5</f>
+        <v>0.91292000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -982,13 +982,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.89629999999999999</v>
+        <v>0.8659</v>
       </c>
       <c r="C25" s="1">
-        <v>0.89259999999999995</v>
+        <v>0.873</v>
       </c>
       <c r="D25" s="1">
-        <v>0.89439999999999997</v>
+        <v>0.86939999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -996,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1010,13 +1010,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>0.8</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="C27" s="1">
-        <v>0.85709999999999997</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="D27" s="1">
-        <v>0.8276</v>
+        <v>0.75860000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1027,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>0.9355</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0.9667</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1038,13 +1038,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>0.9375</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="C29" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.94120000000000004</v>
       </c>
       <c r="D29" s="1">
-        <v>0.88239999999999996</v>
+        <v>0.94120000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>0.9</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="C31" s="1">
-        <v>0.80359999999999998</v>
+        <v>0.70369999999999999</v>
       </c>
       <c r="D31" s="1">
-        <v>0.84909999999999997</v>
+        <v>0.79169999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>0.89129999999999998</v>
+        <v>0.85289999999999999</v>
       </c>
       <c r="C32" s="1">
-        <v>0.74550000000000005</v>
+        <v>0.6744</v>
       </c>
       <c r="D32" s="1">
-        <v>0.81189999999999996</v>
+        <v>0.75319999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,13 +1094,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="1">
-        <v>0.83909999999999996</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="C33" s="1">
-        <v>0.86899999999999999</v>
+        <v>0.80369999999999997</v>
       </c>
       <c r="D33" s="1">
-        <v>0.8538</v>
+        <v>0.81899999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,13 +1108,13 @@
         <v>12</v>
       </c>
       <c r="B34" s="1">
-        <v>0.94469999999999998</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="C34" s="1">
-        <v>0.93730000000000002</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D34" s="1">
-        <v>0.94099999999999995</v>
+        <v>0.94910000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1122,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="B35" s="1">
-        <v>0.9355</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>0.9667</v>
+        <v>0.93330000000000002</v>
       </c>
       <c r="D35" s="1">
-        <v>0.95079999999999998</v>
+        <v>0.96550000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1153,10 +1153,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="D37" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B39" s="1">
-        <v>0.98409999999999997</v>
+        <v>0.96060000000000001</v>
       </c>
       <c r="C39" s="1">
-        <v>0.95750000000000002</v>
+        <v>0.97209999999999996</v>
       </c>
       <c r="D39" s="1">
-        <v>0.97060000000000002</v>
+        <v>0.96630000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1192,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B40" s="1">
-        <v>0.96150000000000002</v>
+        <v>0.95</v>
       </c>
       <c r="C40" s="1">
-        <v>0.92589999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="D40" s="1">
-        <v>0.94340000000000002</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,13 +1206,13 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>0.9335</v>
+        <v>0.92330000000000001</v>
       </c>
       <c r="C41" s="1">
-        <v>0.9123</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="D41" s="1">
-        <v>0.92279999999999995</v>
+        <v>0.91049999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,13 +1236,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.93440000000000001</v>
+        <v>0.86150000000000004</v>
       </c>
       <c r="C46" s="1">
-        <v>0.95279999999999998</v>
+        <v>0.875</v>
       </c>
       <c r="D46" s="1">
-        <v>0.94350000000000001</v>
+        <v>0.86819999999999997</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>0.81820000000000004</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,13 +1264,13 @@
         <v>5</v>
       </c>
       <c r="B48" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>0.26669999999999999</v>
+        <v>0.58819999999999995</v>
       </c>
       <c r="D48" s="1">
-        <v>0.4</v>
+        <v>0.74070000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,13 +1278,13 @@
         <v>6</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>0.9677</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>0.98360000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="1">
-        <v>0.97140000000000004</v>
+        <v>0.9143</v>
       </c>
       <c r="C50" s="1">
-        <v>0.87180000000000002</v>
+        <v>0.82050000000000001</v>
       </c>
       <c r="D50" s="1">
-        <v>0.91890000000000005</v>
+        <v>0.8649</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1309,10 +1309,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>0.66669999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,13 +1320,13 @@
         <v>9</v>
       </c>
       <c r="B52" s="1">
-        <v>0.87039999999999995</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="C52" s="1">
-        <v>0.79659999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="D52" s="1">
-        <v>0.83189999999999997</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1334,13 +1334,13 @@
         <v>10</v>
       </c>
       <c r="B53" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="C53" s="1">
-        <v>0.71430000000000005</v>
+        <v>0.72340000000000004</v>
       </c>
       <c r="D53" s="1">
-        <v>0.76919999999999999</v>
+        <v>0.79069999999999996</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,13 +1348,13 @@
         <v>11</v>
       </c>
       <c r="B54" s="1">
-        <v>0.86209999999999998</v>
+        <v>0.88639999999999997</v>
       </c>
       <c r="C54" s="1">
-        <v>0.80649999999999999</v>
+        <v>0.80410000000000004</v>
       </c>
       <c r="D54" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.84319999999999995</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1362,13 +1362,13 @@
         <v>12</v>
       </c>
       <c r="B55" s="1">
-        <v>0.94269999999999998</v>
+        <v>0.93320000000000003</v>
       </c>
       <c r="C55" s="1">
-        <v>0.91879999999999995</v>
+        <v>0.92369999999999997</v>
       </c>
       <c r="D55" s="1">
-        <v>0.93059999999999998</v>
+        <v>0.9284</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1376,13 +1376,13 @@
         <v>13</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C56" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1393,10 +1393,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
+        <v>0.94740000000000002</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>0.97299999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1407,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>0.57140000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1418,13 +1418,13 @@
         <v>16</v>
       </c>
       <c r="B59" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
-        <v>0.57140000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>17</v>
       </c>
       <c r="B60" s="1">
-        <v>0.98350000000000004</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="C60" s="1">
-        <v>0.96760000000000002</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="D60" s="1">
-        <v>0.97550000000000003</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,13 +1446,13 @@
         <v>18</v>
       </c>
       <c r="B61" s="1">
-        <v>0.94589999999999996</v>
+        <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>0.97219999999999995</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
-        <v>0.95889999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,13 +1460,13 @@
         <v>19</v>
       </c>
       <c r="B62" s="1">
-        <v>0.94059999999999999</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="C62" s="1">
-        <v>0.91090000000000004</v>
+        <v>0.89329999999999998</v>
       </c>
       <c r="D62" s="1">
-        <v>0.92549999999999999</v>
+        <v>0.90820000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1490,13 +1490,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="C67" s="1">
-        <v>0.85109999999999997</v>
+        <v>0.85660000000000003</v>
       </c>
       <c r="D67" s="1">
-        <v>0.84209999999999996</v>
+        <v>0.8518</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>0.92859999999999998</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
-        <v>0.96299999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1518,13 +1518,13 @@
         <v>5</v>
       </c>
       <c r="B69" s="1">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C69" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="D69" s="1">
-        <v>0.7097</v>
+        <v>0.63639999999999997</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
         <v>7</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>0.97729999999999995</v>
       </c>
       <c r="C71" s="1">
-        <v>0.88890000000000002</v>
+        <v>0.89580000000000004</v>
       </c>
       <c r="D71" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.93479999999999996</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1563,10 +1563,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="D72" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1574,13 +1574,13 @@
         <v>9</v>
       </c>
       <c r="B73" s="1">
-        <v>0.873</v>
+        <v>0.89090000000000003</v>
       </c>
       <c r="C73" s="1">
-        <v>0.79710000000000003</v>
+        <v>0.85960000000000003</v>
       </c>
       <c r="D73" s="1">
-        <v>0.83330000000000004</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1588,13 +1588,13 @@
         <v>10</v>
       </c>
       <c r="B74" s="1">
-        <v>0.82979999999999998</v>
+        <v>0.86839999999999995</v>
       </c>
       <c r="C74" s="1">
-        <v>0.76470000000000005</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D74" s="1">
-        <v>0.79590000000000005</v>
+        <v>0.84619999999999995</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1602,13 +1602,13 @@
         <v>11</v>
       </c>
       <c r="B75" s="1">
-        <v>0.86570000000000003</v>
+        <v>0.85060000000000002</v>
       </c>
       <c r="C75" s="1">
-        <v>0.79449999999999998</v>
+        <v>0.82220000000000004</v>
       </c>
       <c r="D75" s="1">
-        <v>0.8286</v>
+        <v>0.83620000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,13 +1616,13 @@
         <v>12</v>
       </c>
       <c r="B76" s="1">
-        <v>0.94469999999999998</v>
+        <v>0.95379999999999998</v>
       </c>
       <c r="C76" s="1">
-        <v>0.93489999999999995</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="D76" s="1">
-        <v>0.93979999999999997</v>
+        <v>0.95140000000000002</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1630,13 +1630,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1">
-        <v>0.88890000000000002</v>
+        <v>0.96150000000000002</v>
       </c>
       <c r="C77" s="1">
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.98040000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,10 +1647,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="1">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>0.97960000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="1">
-        <v>0.625</v>
+        <v>0.1429</v>
       </c>
       <c r="D79" s="1">
-        <v>0.76919999999999999</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,10 +1675,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1686,13 +1686,13 @@
         <v>17</v>
       </c>
       <c r="B81" s="1">
-        <v>0.96050000000000002</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="C81" s="1">
-        <v>0.97199999999999998</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="D81" s="1">
-        <v>0.96619999999999995</v>
+        <v>0.96750000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1700,13 +1700,13 @@
         <v>18</v>
       </c>
       <c r="B82" s="1">
-        <v>0.96360000000000001</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1">
-        <v>0.94640000000000002</v>
+        <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>0.95499999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1714,13 +1714,13 @@
         <v>19</v>
       </c>
       <c r="B83" s="1">
-        <v>0.91949999999999998</v>
+        <v>0.92510000000000003</v>
       </c>
       <c r="C83" s="1">
-        <v>0.89500000000000002</v>
+        <v>0.90769999999999995</v>
       </c>
       <c r="D83" s="1">
-        <v>0.90710000000000002</v>
+        <v>0.9163</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1744,13 +1744,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="1">
-        <v>0.8992</v>
+        <v>0.86850000000000005</v>
       </c>
       <c r="C88" s="1">
-        <v>0.8992</v>
+        <v>0.86170000000000002</v>
       </c>
       <c r="D88" s="1">
-        <v>0.8992</v>
+        <v>0.86509999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1772,13 +1772,13 @@
         <v>5</v>
       </c>
       <c r="B90" s="1">
-        <v>0.78569999999999995</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="C90" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.4375</v>
       </c>
       <c r="D90" s="1">
-        <v>0.75860000000000005</v>
+        <v>0.51849999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1786,13 +1786,13 @@
         <v>6</v>
       </c>
       <c r="B91" s="1">
-        <v>1</v>
+        <v>0.96430000000000005</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="1">
-        <v>1</v>
+        <v>0.98180000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -1800,13 +1800,13 @@
         <v>7</v>
       </c>
       <c r="B92" s="1">
-        <v>0.90700000000000003</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="C92" s="1">
-        <v>0.90700000000000003</v>
+        <v>0.78569999999999995</v>
       </c>
       <c r="D92" s="1">
-        <v>0.90700000000000003</v>
+        <v>0.86839999999999995</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,10 +1817,10 @@
         <v>1</v>
       </c>
       <c r="C93" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,13 +1828,13 @@
         <v>9</v>
       </c>
       <c r="B94" s="1">
-        <v>0.95450000000000002</v>
+        <v>0.87760000000000005</v>
       </c>
       <c r="C94" s="1">
-        <v>0.84</v>
+        <v>0.70489999999999997</v>
       </c>
       <c r="D94" s="1">
-        <v>0.89359999999999995</v>
+        <v>0.78180000000000005</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -1842,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="B95" s="1">
-        <v>0.89190000000000003</v>
+        <v>0.7742</v>
       </c>
       <c r="C95" s="1">
-        <v>0.73329999999999995</v>
+        <v>0.66669999999999996</v>
       </c>
       <c r="D95" s="1">
-        <v>0.80489999999999995</v>
+        <v>0.71640000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,13 +1856,13 @@
         <v>11</v>
       </c>
       <c r="B96" s="1">
-        <v>0.86599999999999999</v>
+        <v>0.8841</v>
       </c>
       <c r="C96" s="1">
-        <v>0.79249999999999998</v>
+        <v>0.89710000000000001</v>
       </c>
       <c r="D96" s="1">
-        <v>0.8276</v>
+        <v>0.89049999999999996</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -1870,13 +1870,13 @@
         <v>12</v>
       </c>
       <c r="B97" s="1">
-        <v>0.96079999999999999</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="C97" s="1">
-        <v>0.94120000000000004</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="D97" s="1">
-        <v>0.95089999999999997</v>
+        <v>0.93259999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1884,13 +1884,13 @@
         <v>13</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="C98" s="1">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="D98" s="1">
-        <v>0.93330000000000002</v>
+        <v>0.92679999999999996</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,10 +1915,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D101" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1940,13 +1940,13 @@
         <v>17</v>
       </c>
       <c r="B102" s="1">
-        <v>0.96860000000000002</v>
+        <v>0.95720000000000005</v>
       </c>
       <c r="C102" s="1">
-        <v>0.96860000000000002</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="D102" s="1">
-        <v>0.96860000000000002</v>
+        <v>0.97230000000000005</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>0.91669999999999996</v>
       </c>
       <c r="D103" s="1">
-        <v>1</v>
+        <v>0.95650000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,13 +1968,13 @@
         <v>19</v>
       </c>
       <c r="B104" s="1">
-        <v>0.94020000000000004</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="C104" s="1">
-        <v>0.91249999999999998</v>
+        <v>0.89270000000000005</v>
       </c>
       <c r="D104" s="1">
-        <v>0.92620000000000002</v>
+        <v>0.90739999999999998</v>
       </c>
     </row>
   </sheetData>
